--- a/mother-father/data/DebA_coder_AD.xlsx
+++ b/mother-father/data/DebA_coder_AD.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sp16194/Google_Drive/work/projects/kinbank_paper/code/mother-father/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE5AEBF-2D2D-497A-9AA9-7F904C060A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F68BA-8F7E-CF4A-89F0-90C5ACE16AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kinterms" sheetId="1" r:id="rId1"/>
     <sheet name="consonants" sheetId="2" r:id="rId2"/>
     <sheet name="vowels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="358">
   <si>
     <t>new_id</t>
   </si>
@@ -1090,6 +1101,12 @@
   </si>
   <si>
     <t>not sure how to say this</t>
+  </si>
+  <si>
+    <t>yǎ pä</t>
+  </si>
+  <si>
+    <t>mbà</t>
   </si>
 </sst>
 </file>
@@ -1423,15 +1440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1465,7 +1482,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1482,7 +1499,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1499,7 +1516,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1533,7 +1550,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1550,7 +1567,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1567,7 +1584,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1584,7 +1601,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1601,7 +1618,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1618,7 +1635,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1635,7 +1652,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1652,7 +1669,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1669,7 +1686,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1686,7 +1703,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1703,7 +1720,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1720,7 +1737,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1737,7 +1754,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1754,7 +1771,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1771,7 +1788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1788,7 +1805,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1805,7 +1822,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1822,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1839,7 +1856,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1856,7 +1873,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1873,7 +1890,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1890,7 +1907,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1907,7 +1924,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1924,7 +1941,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1941,7 +1958,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1958,7 +1975,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1975,7 +1992,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1992,7 +2009,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2009,7 +2026,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2026,7 +2043,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2060,7 +2077,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2077,7 +2094,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2094,7 +2111,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2111,7 +2128,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2128,7 +2145,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2145,7 +2162,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2162,7 +2179,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2179,7 +2196,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2196,7 +2213,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2213,7 +2230,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2230,7 +2247,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2247,7 +2264,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2264,7 +2281,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2281,7 +2298,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2298,7 +2315,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2315,7 +2332,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2349,7 +2366,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2366,7 +2383,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2383,7 +2400,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2400,7 +2417,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2417,7 +2434,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2434,7 +2451,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2451,7 +2468,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2468,7 +2485,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2485,7 +2502,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2502,7 +2519,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2519,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2536,7 +2553,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2553,7 +2570,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2570,7 +2587,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2587,7 +2604,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2604,7 +2621,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2621,7 +2638,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2638,7 +2655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2655,7 +2672,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2672,7 +2689,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2689,7 +2706,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2706,7 +2723,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2723,7 +2740,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2740,7 +2757,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2757,7 +2774,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2774,7 +2791,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2791,7 +2808,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2808,7 +2825,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2825,7 +2842,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2842,7 +2859,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2859,7 +2876,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2876,7 +2893,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2893,7 +2910,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2927,7 +2944,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2944,7 +2961,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2961,7 +2978,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2978,7 +2995,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2995,7 +3012,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3012,7 +3029,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3046,7 +3063,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3063,7 +3080,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3080,7 +3097,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3097,7 +3114,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3114,7 +3131,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3131,7 +3148,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3148,7 +3165,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3165,7 +3182,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3182,7 +3199,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3199,7 +3216,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3216,7 +3233,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3233,7 +3250,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3250,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3267,7 +3284,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3284,7 +3301,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3301,7 +3318,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3318,7 +3335,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3335,7 +3352,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3352,7 +3369,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3369,7 +3386,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3386,7 +3403,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3403,7 +3420,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3420,7 +3437,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3454,7 +3471,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3471,7 +3488,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3486,6 +3503,666 @@
       </c>
       <c r="E121" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>43</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>26</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>60</v>
+      </c>
+      <c r="B125" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>28</v>
+      </c>
+      <c r="B128" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>22</v>
+      </c>
+      <c r="B129" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>34</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>48</v>
+      </c>
+      <c r="B133" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>47</v>
+      </c>
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+      <c r="C134" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>30</v>
+      </c>
+      <c r="B136" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>38</v>
+      </c>
+      <c r="B138" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>50</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>25</v>
+      </c>
+      <c r="B142" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>41</v>
+      </c>
+      <c r="B143" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>55</v>
+      </c>
+      <c r="B144" t="s">
+        <v>109</v>
+      </c>
+      <c r="C144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>33</v>
+      </c>
+      <c r="B145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>52</v>
+      </c>
+      <c r="B147" t="s">
+        <v>104</v>
+      </c>
+      <c r="C147" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>44</v>
+      </c>
+      <c r="B149" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>85</v>
+      </c>
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>67</v>
+      </c>
+      <c r="B153" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>105</v>
+      </c>
+      <c r="B154" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>102</v>
+      </c>
+      <c r="B155" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>104</v>
+      </c>
+      <c r="B156" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>120</v>
+      </c>
+      <c r="B157" t="s">
+        <v>230</v>
+      </c>
+      <c r="C157" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>112</v>
+      </c>
+      <c r="B158" t="s">
+        <v>214</v>
+      </c>
+      <c r="C158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>116</v>
+      </c>
+      <c r="B159" t="s">
+        <v>223</v>
+      </c>
+      <c r="C159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>94</v>
+      </c>
+      <c r="B160" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>71</v>
+      </c>
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>90</v>
+      </c>
+      <c r="B162" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>103</v>
+      </c>
+      <c r="B163" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>83</v>
+      </c>
+      <c r="B164" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>63</v>
+      </c>
+      <c r="B165" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>77</v>
+      </c>
+      <c r="B166" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>106</v>
+      </c>
+      <c r="B167" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>98</v>
+      </c>
+      <c r="B168" t="s">
+        <v>190</v>
+      </c>
+      <c r="C168" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>113</v>
+      </c>
+      <c r="B169" t="s">
+        <v>217</v>
+      </c>
+      <c r="C169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>66</v>
+      </c>
+      <c r="B170" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>68</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>95</v>
+      </c>
+      <c r="B172" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>86</v>
+      </c>
+      <c r="B173" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>80</v>
+      </c>
+      <c r="B174" t="s">
+        <v>155</v>
+      </c>
+      <c r="C174" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>107</v>
+      </c>
+      <c r="B175" t="s">
+        <v>206</v>
+      </c>
+      <c r="C175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>100</v>
+      </c>
+      <c r="B176" t="s">
+        <v>194</v>
+      </c>
+      <c r="C176" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>84</v>
+      </c>
+      <c r="B177" t="s">
+        <v>163</v>
+      </c>
+      <c r="C177" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>89</v>
+      </c>
+      <c r="B178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>61</v>
+      </c>
+      <c r="B179" t="s">
+        <v>120</v>
+      </c>
+      <c r="C179" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>75</v>
+      </c>
+      <c r="B180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>65</v>
+      </c>
+      <c r="B181" t="s">
+        <v>128</v>
+      </c>
+      <c r="C181" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3502,9 +4179,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -3518,7 +4195,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -3529,7 +4206,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -3540,7 +4217,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -3551,7 +4228,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -3562,7 +4239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -3573,7 +4250,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -3584,7 +4261,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -3595,7 +4272,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -3606,7 +4283,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -3617,7 +4294,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -3628,7 +4305,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>266</v>
       </c>
@@ -3639,7 +4316,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -3650,7 +4327,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -3661,7 +4338,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>275</v>
       </c>
@@ -3672,7 +4349,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>278</v>
       </c>
@@ -3683,7 +4360,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>281</v>
       </c>
@@ -3694,7 +4371,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>284</v>
       </c>
@@ -3705,7 +4382,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>287</v>
       </c>
@@ -3713,7 +4390,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>289</v>
       </c>
@@ -3721,7 +4398,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>291</v>
       </c>
@@ -3732,7 +4409,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -3743,7 +4420,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>297</v>
       </c>
@@ -3754,7 +4431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>300</v>
       </c>
@@ -3765,7 +4442,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>303</v>
       </c>
@@ -3773,7 +4450,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -3784,7 +4461,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -3795,7 +4472,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>311</v>
       </c>
@@ -3806,7 +4483,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>314</v>
       </c>
@@ -3817,7 +4494,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>317</v>
       </c>
@@ -3828,7 +4505,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>320</v>
       </c>
@@ -3836,7 +4513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -3847,7 +4524,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -3858,7 +4535,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -3866,7 +4543,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>330</v>
       </c>
@@ -3886,9 +4563,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -3899,7 +4576,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>332</v>
       </c>
@@ -3910,7 +4587,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -3921,7 +4598,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -3932,7 +4609,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -3943,7 +4620,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>344</v>
       </c>
@@ -3954,7 +4631,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>347</v>
       </c>
@@ -3965,7 +4642,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>350</v>
       </c>
